--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javicanton/Documents/GitHub/Make-Over-Monday-2020-Week-3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javicanton/Documents/GitHub/MOM-Week-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2FAAD4-BF32-8D4B-9C63-A3FF4AEF46F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB3EF19-8F1B-0349-9E47-B22ED97E0EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="960" windowWidth="25160" windowHeight="13820" xr2:uid="{5C403632-6C2D-CF43-9DDB-822296D86399}"/>
   </bookViews>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
-  <si>
-    <t>2008-10</t>
-  </si>
-  <si>
-    <t>2010-12</t>
-  </si>
-  <si>
-    <t>2012-14</t>
-  </si>
-  <si>
-    <t>2014-16</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
   <si>
     <t>Children</t>
   </si>
@@ -451,7 +439,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -461,30 +449,30 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2012</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2016</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>12.1</v>
@@ -501,10 +489,10 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>14.7</v>
@@ -521,10 +509,10 @@
     </row>
     <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>15.9</v>
@@ -541,10 +529,10 @@
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>11.8</v>
@@ -561,10 +549,10 @@
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -581,10 +569,10 @@
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>11.6</v>
@@ -601,10 +589,10 @@
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
         <v>10.9</v>
@@ -621,10 +609,10 @@
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>9.6999999999999993</v>
@@ -641,10 +629,10 @@
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>10.1</v>
@@ -661,10 +649,10 @@
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>9.9</v>
@@ -681,10 +669,10 @@
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>9.6999999999999993</v>
@@ -701,10 +689,10 @@
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
         <v>10.1</v>
@@ -721,10 +709,10 @@
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>12.2</v>
@@ -741,10 +729,10 @@
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>11.8</v>
@@ -761,10 +749,10 @@
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>12.4</v>
